--- a/src/test/java/suites/Project.xlsx
+++ b/src/test/java/suites/Project.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -119,6 +119,30 @@
   </si>
   <si>
     <t>999</t>
+  </si>
+  <si>
+    <t>lastDate</t>
+  </si>
+  <si>
+    <t>noOfOpenings</t>
+  </si>
+  <si>
+    <t>specilization</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>29-Jan-2021</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Adventure Equipment</t>
+  </si>
+  <si>
+    <t>Bird Spotting</t>
   </si>
 </sst>
 </file>
@@ -507,10 +531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,9 +547,10 @@
     <col min="9" max="9" width="44.5546875" customWidth="1"/>
     <col min="10" max="10" width="43.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -571,8 +596,20 @@
       <c r="O1" t="s">
         <v>21</v>
       </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -617,6 +654,18 @@
       </c>
       <c r="O2" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/suites/Project.xlsx
+++ b/src/test/java/suites/Project.xlsx
@@ -139,10 +139,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>Adventure Equipment</t>
-  </si>
-  <si>
     <t>Bird Spotting</t>
+  </si>
+  <si>
+    <t>Acarology</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,10 +662,10 @@
         <v>36</v>
       </c>
       <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
         <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/suites/Project.xlsx
+++ b/src/test/java/suites/Project.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>TCID</t>
   </si>
@@ -143,6 +143,69 @@
   </si>
   <si>
     <t>Acarology</t>
+  </si>
+  <si>
+    <t>HashTags1</t>
+  </si>
+  <si>
+    <t>HashTags2</t>
+  </si>
+  <si>
+    <t>HashTags3</t>
+  </si>
+  <si>
+    <t>HashTags4</t>
+  </si>
+  <si>
+    <t>HashTags5</t>
+  </si>
+  <si>
+    <t>HashTags6</t>
+  </si>
+  <si>
+    <t>Qualification1</t>
+  </si>
+  <si>
+    <t>Qualification2</t>
+  </si>
+  <si>
+    <t>Qualification3</t>
+  </si>
+  <si>
+    <t>Qualification4</t>
+  </si>
+  <si>
+    <t>Qualification5</t>
+  </si>
+  <si>
+    <t>Inclusions</t>
+  </si>
+  <si>
+    <t>Exclusions</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>MediaCoverage</t>
+  </si>
+  <si>
+    <t>auto1</t>
+  </si>
+  <si>
+    <t>auto2</t>
+  </si>
+  <si>
+    <t>auto3</t>
+  </si>
+  <si>
+    <t>auto4</t>
+  </si>
+  <si>
+    <t>auto5</t>
+  </si>
+  <si>
+    <t>B Tech</t>
   </si>
 </sst>
 </file>
@@ -531,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,9 +611,12 @@
     <col min="10" max="10" width="43.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="39.44140625" customWidth="1"/>
+    <col min="33" max="33" width="33" customWidth="1"/>
+    <col min="34" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -608,8 +674,53 @@
       <c r="S1" t="s">
         <v>34</v>
       </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="56.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -666,6 +777,36 @@
       </c>
       <c r="S2" t="s">
         <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/suites/Project.xlsx
+++ b/src/test/java/suites/Project.xlsx
@@ -115,9 +115,6 @@
     <t>Baki</t>
   </si>
   <si>
-    <t>30-Jan-2021</t>
-  </si>
-  <si>
     <t>999</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>skills</t>
   </si>
   <si>
-    <t>29-Jan-2021</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>B Tech</t>
+  </si>
+  <si>
+    <t>01-Feb-2021</t>
+  </si>
+  <si>
+    <t>05-Feb-2021</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
     <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="39.44140625" customWidth="1"/>
     <col min="33" max="33" width="33" customWidth="1"/>
-    <col min="34" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -663,61 +663,61 @@
         <v>21</v>
       </c>
       <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
       <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>51</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="76.8" x14ac:dyDescent="0.3">
@@ -761,40 +761,40 @@
         <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
       <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
         <v>54</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>57</v>
-      </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>59</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>25</v>
